--- a/downloaded_files/MCNS326_Tutorial-35677.xlsx
+++ b/downloaded_files/MCNS326_Tutorial-35677.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,15 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد عاطف مرعى عبد النعيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Atef Merhy Abdel Naim</x:t>
   </x:si>
   <x:si>
     <x:t>1240193</x:t>
@@ -182,7 +173,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E4" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -482,7 +473,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T5"/>
+  <x:dimension ref="A1:T4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -573,7 +564,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.6721903125</x:v>
+        <x:v>45914.4389700579</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -605,7 +596,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45914.4389700579</x:v>
+        <x:v>45907.4151853819</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -637,7 +628,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4151853819</x:v>
+        <x:v>45907.4357988079</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -654,38 +645,6 @@
       <x:c r="R4" s="2" t="s"/>
       <x:c r="S4" s="2" t="s"/>
       <x:c r="T4" s="2" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:20">
-      <x:c r="A5" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E5" s="3">
-        <x:v>45907.4357988079</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s"/>
-      <x:c r="G5" s="2" t="s"/>
-      <x:c r="H5" s="2" t="s"/>
-      <x:c r="I5" s="2" t="s"/>
-      <x:c r="J5" s="2" t="s"/>
-      <x:c r="K5" s="2" t="s"/>
-      <x:c r="L5" s="2" t="s"/>
-      <x:c r="M5" s="2" t="s"/>
-      <x:c r="N5" s="2" t="s"/>
-      <x:c r="O5" s="2" t="s"/>
-      <x:c r="P5" s="2" t="s"/>
-      <x:c r="Q5" s="2" t="s"/>
-      <x:c r="R5" s="2" t="s"/>
-      <x:c r="S5" s="2" t="s"/>
-      <x:c r="T5" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS326_Tutorial-35677.xlsx
+++ b/downloaded_files/MCNS326_Tutorial-35677.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>kareem nagy marzok mohamed El kahwagy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210413</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مايفى عماد مملوك فخرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maive Emad Mamlouk Fakhry</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -173,7 +182,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E4" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -473,7 +482,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T4"/>
+  <x:dimension ref="A1:T5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -646,6 +655,38 @@
       <x:c r="S4" s="2" t="s"/>
       <x:c r="T4" s="2" t="s"/>
     </x:row>
+    <x:row r="5" spans="1:20">
+      <x:c r="A5" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="3">
+        <x:v>45923.5615092245</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s"/>
+      <x:c r="G5" s="2" t="s"/>
+      <x:c r="H5" s="2" t="s"/>
+      <x:c r="I5" s="2" t="s"/>
+      <x:c r="J5" s="2" t="s"/>
+      <x:c r="K5" s="2" t="s"/>
+      <x:c r="L5" s="2" t="s"/>
+      <x:c r="M5" s="2" t="s"/>
+      <x:c r="N5" s="2" t="s"/>
+      <x:c r="O5" s="2" t="s"/>
+      <x:c r="P5" s="2" t="s"/>
+      <x:c r="Q5" s="2" t="s"/>
+      <x:c r="R5" s="2" t="s"/>
+      <x:c r="S5" s="2" t="s"/>
+      <x:c r="T5" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>

--- a/downloaded_files/MCNS326_Tutorial-35677.xlsx
+++ b/downloaded_files/MCNS326_Tutorial-35677.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>Maive Emad Mamlouk Fakhry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف عادل محمد حمزاوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hamzawi</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -182,7 +191,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -482,7 +491,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T5"/>
+  <x:dimension ref="A1:T6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -687,6 +696,38 @@
       <x:c r="S5" s="2" t="s"/>
       <x:c r="T5" s="2" t="s"/>
     </x:row>
+    <x:row r="6" spans="1:20">
+      <x:c r="A6" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E6" s="3">
+        <x:v>45926.4591123032</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s"/>
+      <x:c r="G6" s="2" t="s"/>
+      <x:c r="H6" s="2" t="s"/>
+      <x:c r="I6" s="2" t="s"/>
+      <x:c r="J6" s="2" t="s"/>
+      <x:c r="K6" s="2" t="s"/>
+      <x:c r="L6" s="2" t="s"/>
+      <x:c r="M6" s="2" t="s"/>
+      <x:c r="N6" s="2" t="s"/>
+      <x:c r="O6" s="2" t="s"/>
+      <x:c r="P6" s="2" t="s"/>
+      <x:c r="Q6" s="2" t="s"/>
+      <x:c r="R6" s="2" t="s"/>
+      <x:c r="S6" s="2" t="s"/>
+      <x:c r="T6" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>

--- a/downloaded_files/MCNS326_Tutorial-35677.xlsx
+++ b/downloaded_files/MCNS326_Tutorial-35677.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,15 +67,6 @@
   </x:si>
   <x:si>
     <x:t>Maive Emad Mamlouk Fakhry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف عادل محمد حمزاوي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Hamzawi</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -191,7 +182,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -491,7 +482,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T6"/>
+  <x:dimension ref="A1:T5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -696,38 +687,6 @@
       <x:c r="S5" s="2" t="s"/>
       <x:c r="T5" s="2" t="s"/>
     </x:row>
-    <x:row r="6" spans="1:20">
-      <x:c r="A6" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B6" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E6" s="3">
-        <x:v>45926.4591123032</x:v>
-      </x:c>
-      <x:c r="F6" s="2" t="s"/>
-      <x:c r="G6" s="2" t="s"/>
-      <x:c r="H6" s="2" t="s"/>
-      <x:c r="I6" s="2" t="s"/>
-      <x:c r="J6" s="2" t="s"/>
-      <x:c r="K6" s="2" t="s"/>
-      <x:c r="L6" s="2" t="s"/>
-      <x:c r="M6" s="2" t="s"/>
-      <x:c r="N6" s="2" t="s"/>
-      <x:c r="O6" s="2" t="s"/>
-      <x:c r="P6" s="2" t="s"/>
-      <x:c r="Q6" s="2" t="s"/>
-      <x:c r="R6" s="2" t="s"/>
-      <x:c r="S6" s="2" t="s"/>
-      <x:c r="T6" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>

--- a/downloaded_files/MCNS326_Tutorial-35677.xlsx
+++ b/downloaded_files/MCNS326_Tutorial-35677.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>Maive Emad Mamlouk Fakhry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف عادل محمد حمزاوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hamzawi</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -182,7 +191,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -482,7 +491,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T5"/>
+  <x:dimension ref="A1:T6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -687,6 +696,38 @@
       <x:c r="S5" s="2" t="s"/>
       <x:c r="T5" s="2" t="s"/>
     </x:row>
+    <x:row r="6" spans="1:20">
+      <x:c r="A6" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E6" s="3">
+        <x:v>45927.9276508912</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s"/>
+      <x:c r="G6" s="2" t="s"/>
+      <x:c r="H6" s="2" t="s"/>
+      <x:c r="I6" s="2" t="s"/>
+      <x:c r="J6" s="2" t="s"/>
+      <x:c r="K6" s="2" t="s"/>
+      <x:c r="L6" s="2" t="s"/>
+      <x:c r="M6" s="2" t="s"/>
+      <x:c r="N6" s="2" t="s"/>
+      <x:c r="O6" s="2" t="s"/>
+      <x:c r="P6" s="2" t="s"/>
+      <x:c r="Q6" s="2" t="s"/>
+      <x:c r="R6" s="2" t="s"/>
+      <x:c r="S6" s="2" t="s"/>
+      <x:c r="T6" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>

--- a/downloaded_files/MCNS326_Tutorial-35677.xlsx
+++ b/downloaded_files/MCNS326_Tutorial-35677.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,15 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حسن محى حسن عبدالمجيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hassan Mohy Hassan Abdelmegeed Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1230192</x:t>
@@ -191,7 +182,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -491,7 +482,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T6"/>
+  <x:dimension ref="A1:T5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -500,7 +491,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="24.120625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="38.660625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="38.680625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -582,7 +573,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45914.4389700579</x:v>
+        <x:v>45907.4151853819</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -614,7 +605,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4151853819</x:v>
+        <x:v>45907.4357988079</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -646,7 +637,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4357988079</x:v>
+        <x:v>45923.5615092245</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -678,7 +669,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45923.5615092245</x:v>
+        <x:v>45927.9276508912</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -695,38 +686,6 @@
       <x:c r="R5" s="2" t="s"/>
       <x:c r="S5" s="2" t="s"/>
       <x:c r="T5" s="2" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:20">
-      <x:c r="A6" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B6" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E6" s="3">
-        <x:v>45927.9276508912</x:v>
-      </x:c>
-      <x:c r="F6" s="2" t="s"/>
-      <x:c r="G6" s="2" t="s"/>
-      <x:c r="H6" s="2" t="s"/>
-      <x:c r="I6" s="2" t="s"/>
-      <x:c r="J6" s="2" t="s"/>
-      <x:c r="K6" s="2" t="s"/>
-      <x:c r="L6" s="2" t="s"/>
-      <x:c r="M6" s="2" t="s"/>
-      <x:c r="N6" s="2" t="s"/>
-      <x:c r="O6" s="2" t="s"/>
-      <x:c r="P6" s="2" t="s"/>
-      <x:c r="Q6" s="2" t="s"/>
-      <x:c r="R6" s="2" t="s"/>
-      <x:c r="S6" s="2" t="s"/>
-      <x:c r="T6" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS326_Tutorial-35677.xlsx
+++ b/downloaded_files/MCNS326_Tutorial-35677.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,15 +58,6 @@
   </x:si>
   <x:si>
     <x:t>Maive Emad Mamlouk Fakhry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف عادل محمد حمزاوي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Hamzawi</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -182,7 +173,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E4" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -482,7 +473,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T5"/>
+  <x:dimension ref="A1:T4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -655,38 +646,6 @@
       <x:c r="S4" s="2" t="s"/>
       <x:c r="T4" s="2" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:20">
-      <x:c r="A5" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E5" s="3">
-        <x:v>45927.9276508912</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s"/>
-      <x:c r="G5" s="2" t="s"/>
-      <x:c r="H5" s="2" t="s"/>
-      <x:c r="I5" s="2" t="s"/>
-      <x:c r="J5" s="2" t="s"/>
-      <x:c r="K5" s="2" t="s"/>
-      <x:c r="L5" s="2" t="s"/>
-      <x:c r="M5" s="2" t="s"/>
-      <x:c r="N5" s="2" t="s"/>
-      <x:c r="O5" s="2" t="s"/>
-      <x:c r="P5" s="2" t="s"/>
-      <x:c r="Q5" s="2" t="s"/>
-      <x:c r="R5" s="2" t="s"/>
-      <x:c r="S5" s="2" t="s"/>
-      <x:c r="T5" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>

--- a/downloaded_files/MCNS326_Tutorial-35677.xlsx
+++ b/downloaded_files/MCNS326_Tutorial-35677.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حسن محى حسن عبدالمجيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hassan Mohy Hassan Abdelmegeed Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1230192</x:t>
@@ -173,7 +182,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E4" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -473,7 +482,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T4"/>
+  <x:dimension ref="A1:T5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -482,7 +491,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="24.120625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="38.680625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="38.660625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -564,7 +573,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.4151853819</x:v>
+        <x:v>45930.4161346875</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -596,7 +605,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4357988079</x:v>
+        <x:v>45907.4151853819</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -628,7 +637,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45923.5615092245</x:v>
+        <x:v>45907.4357988079</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -645,6 +654,38 @@
       <x:c r="R4" s="2" t="s"/>
       <x:c r="S4" s="2" t="s"/>
       <x:c r="T4" s="2" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:20">
+      <x:c r="A5" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="3">
+        <x:v>45923.5615092245</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s"/>
+      <x:c r="G5" s="2" t="s"/>
+      <x:c r="H5" s="2" t="s"/>
+      <x:c r="I5" s="2" t="s"/>
+      <x:c r="J5" s="2" t="s"/>
+      <x:c r="K5" s="2" t="s"/>
+      <x:c r="L5" s="2" t="s"/>
+      <x:c r="M5" s="2" t="s"/>
+      <x:c r="N5" s="2" t="s"/>
+      <x:c r="O5" s="2" t="s"/>
+      <x:c r="P5" s="2" t="s"/>
+      <x:c r="Q5" s="2" t="s"/>
+      <x:c r="R5" s="2" t="s"/>
+      <x:c r="S5" s="2" t="s"/>
+      <x:c r="T5" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS326_Tutorial-35677.xlsx
+++ b/downloaded_files/MCNS326_Tutorial-35677.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تسنيم يحيى محمد فرج</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tasneem Yahia Mohamed Farag</x:t>
   </x:si>
   <x:si>
     <x:t>1240193</x:t>
@@ -182,7 +191,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -482,7 +491,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T5"/>
+  <x:dimension ref="A1:T6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -573,7 +582,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45930.4161346875</x:v>
+        <x:v>45931.3706199074</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -605,7 +614,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4151853819</x:v>
+        <x:v>45930.4161346875</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -637,7 +646,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4357988079</x:v>
+        <x:v>45907.4151853819</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -669,7 +678,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45923.5615092245</x:v>
+        <x:v>45907.4357988079</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -686,6 +695,38 @@
       <x:c r="R5" s="2" t="s"/>
       <x:c r="S5" s="2" t="s"/>
       <x:c r="T5" s="2" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:20">
+      <x:c r="A6" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E6" s="3">
+        <x:v>45923.5615092245</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s"/>
+      <x:c r="G6" s="2" t="s"/>
+      <x:c r="H6" s="2" t="s"/>
+      <x:c r="I6" s="2" t="s"/>
+      <x:c r="J6" s="2" t="s"/>
+      <x:c r="K6" s="2" t="s"/>
+      <x:c r="L6" s="2" t="s"/>
+      <x:c r="M6" s="2" t="s"/>
+      <x:c r="N6" s="2" t="s"/>
+      <x:c r="O6" s="2" t="s"/>
+      <x:c r="P6" s="2" t="s"/>
+      <x:c r="Q6" s="2" t="s"/>
+      <x:c r="R6" s="2" t="s"/>
+      <x:c r="S6" s="2" t="s"/>
+      <x:c r="T6" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
